--- a/SimpleBak/setting.xlsx
+++ b/SimpleBak/setting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48DE412-8864-41C3-9993-70A94843D439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4431009E-9774-4D49-8D18-F00AAE8A51D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="编码对比" sheetId="1" r:id="rId1"/>
     <sheet name="实验设置" sheetId="2" r:id="rId2"/>
+    <sheet name="转码设置" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">编码对比!$A$1:$L$3</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="174">
   <si>
     <t>GIF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,7 +585,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -594,7 +595,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -604,7 +605,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -614,7 +615,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -630,7 +631,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -639,7 +640,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -653,7 +654,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -662,7 +663,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -678,7 +679,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -687,7 +688,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -759,25 +760,91 @@
     <t>JPEG-XT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>解码</t>
+  </si>
+  <si>
+    <t>webp</t>
+  </si>
+  <si>
+    <t>yuv</t>
+  </si>
+  <si>
+    <t>编码准备</t>
+  </si>
+  <si>
+    <t>Kakadu</t>
+  </si>
+  <si>
+    <t>mj2</t>
+  </si>
+  <si>
+    <t>yuv support</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>no support</t>
+  </si>
+  <si>
+    <t>flif</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>bpg</t>
+  </si>
+  <si>
+    <t>avif</t>
+  </si>
+  <si>
+    <t>jpeg</t>
+  </si>
+  <si>
+    <t>heif</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>YUV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -806,32 +873,60 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,8 +975,33 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -904,12 +1024,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,7 +1120,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1010,9 +1150,44 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="注释" xfId="4" builtinId="10"/>
+    <cellStyle name="着色 2" xfId="5" builtinId="33"/>
+    <cellStyle name="着色 5" xfId="6" builtinId="45"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1298,28 +1473,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="78.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="78.42578125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="27">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1360,7 +1535,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="67.5">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -1399,7 +1574,7 @@
       </c>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:13" ht="121.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="135">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1613,7 @@
       </c>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="103.5" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
@@ -1477,7 +1652,7 @@
       </c>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="103.5" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -1516,7 +1691,7 @@
       </c>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="27">
       <c r="A6" s="21" t="s">
         <v>24</v>
       </c>
@@ -1555,7 +1730,7 @@
       </c>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="3" customFormat="1">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -1570,7 +1745,7 @@
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:13" s="33" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="33" customFormat="1" ht="27">
       <c r="A8" s="21" t="s">
         <v>151</v>
       </c>
@@ -1589,7 +1764,7 @@
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="121.5">
       <c r="A9" s="21" t="s">
         <v>61</v>
       </c>
@@ -1628,7 +1803,7 @@
       </c>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="95.25" customHeight="1">
       <c r="A10" s="21" t="s">
         <v>67</v>
       </c>
@@ -1669,7 +1844,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="40.5">
       <c r="A11" s="21" t="s">
         <v>73</v>
       </c>
@@ -1708,7 +1883,7 @@
       </c>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="40.5">
       <c r="A12" s="21" t="s">
         <v>74</v>
       </c>
@@ -1747,7 +1922,7 @@
       </c>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="94.5">
       <c r="A13" s="23" t="s">
         <v>86</v>
       </c>
@@ -1780,7 +1955,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="23" t="s">
         <v>92</v>
       </c>
@@ -1822,24 +1997,24 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="12.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="43" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="66.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="56.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="66.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="56.42578125" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
@@ -1868,7 +2043,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="45">
       <c r="A2" s="6" t="s">
         <v>138</v>
       </c>
@@ -1895,7 +2070,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="5" customFormat="1">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1906,7 +2081,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="30" customFormat="1" ht="30">
       <c r="A4" s="26" t="s">
         <v>139</v>
       </c>
@@ -1931,7 +2106,7 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="75">
       <c r="A5" s="6" t="s">
         <v>61</v>
       </c>
@@ -1958,7 +2133,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="75">
       <c r="A6" s="6" t="s">
         <v>67</v>
       </c>
@@ -1987,7 +2162,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="45">
       <c r="A7" s="14" t="s">
         <v>132</v>
       </c>
@@ -2014,7 +2189,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="14" t="s">
         <v>74</v>
       </c>
@@ -2041,7 +2216,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="16" t="s">
         <v>131</v>
       </c>
@@ -2066,7 +2241,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="16" t="s">
         <v>92</v>
       </c>
@@ -2092,4 +2267,333 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EE3BA5-8943-45EB-97C0-8838D9F63575}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="35"/>
+    <col min="2" max="2" width="12.5703125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="35" customWidth="1"/>
+    <col min="7" max="11" width="9" style="35"/>
+    <col min="12" max="12" width="56.42578125" style="35" customWidth="1"/>
+    <col min="13" max="13" width="50" style="35" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="45">
+      <c r="A2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="34" customFormat="1" ht="30">
+      <c r="A3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="75">
+      <c r="A4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="75">
+      <c r="A5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="45">
+      <c r="A6" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30">
+      <c r="A7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30">
+      <c r="A8" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SimpleBak/setting.xlsx
+++ b/SimpleBak/setting.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4431009E-9774-4D49-8D18-F00AAE8A51D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A84486-D69D-4C04-9E47-A899CDFB7B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="175">
   <si>
     <t>GIF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,7 +585,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -595,7 +595,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -605,7 +605,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -615,7 +615,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -631,7 +631,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -640,7 +640,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -654,7 +654,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -663,7 +663,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -679,7 +679,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -688,7 +688,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -812,9 +812,6 @@
     <t>avif</t>
   </si>
   <si>
-    <t>jpeg</t>
-  </si>
-  <si>
     <t>heif</t>
   </si>
   <si>
@@ -825,6 +822,14 @@
   </si>
   <si>
     <t>YUV</t>
+  </si>
+  <si>
+    <t>OPENJPEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j2k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -832,19 +837,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -873,55 +878,55 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1120,7 +1125,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1168,27 +1173,27 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="注释" xfId="4" builtinId="10"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="着色 2" xfId="5" builtinId="33"/>
     <cellStyle name="着色 5" xfId="6" builtinId="45"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="注释" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1477,24 +1482,24 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="19.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="78.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="78.375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1535,7 +1540,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="67.5">
+    <row r="2" spans="1:13" ht="54" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -1574,7 +1579,7 @@
       </c>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:13" ht="135">
+    <row r="3" spans="1:13" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1618,7 @@
       </c>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="103.5" customHeight="1">
+    <row r="4" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
@@ -1652,7 +1657,7 @@
       </c>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="103.5" customHeight="1">
+    <row r="5" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -1691,7 +1696,7 @@
       </c>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="27">
+    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>24</v>
       </c>
@@ -1730,7 +1735,7 @@
       </c>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -1745,7 +1750,7 @@
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:13" s="33" customFormat="1" ht="27">
+    <row r="8" spans="1:13" s="33" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>151</v>
       </c>
@@ -1764,7 +1769,7 @@
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="1:13" ht="121.5">
+    <row r="9" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>61</v>
       </c>
@@ -1803,7 +1808,7 @@
       </c>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" ht="95.25" customHeight="1">
+    <row r="10" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>67</v>
       </c>
@@ -1844,7 +1849,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="40.5">
+    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>73</v>
       </c>
@@ -1883,7 +1888,7 @@
       </c>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" ht="40.5">
+    <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>74</v>
       </c>
@@ -1922,7 +1927,7 @@
       </c>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" ht="94.5">
+    <row r="13" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>86</v>
       </c>
@@ -1955,7 +1960,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>92</v>
       </c>
@@ -1997,24 +2002,24 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="12.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="43" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.375" style="4" customWidth="1"/>
     <col min="5" max="5" width="50" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="66.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="56.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="66.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="56.375" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
@@ -2043,7 +2048,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45">
+    <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>138</v>
       </c>
@@ -2070,7 +2075,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1">
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2081,7 +2086,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" s="30" customFormat="1" ht="30">
+    <row r="4" spans="1:9" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>139</v>
       </c>
@@ -2106,7 +2111,7 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="75">
+    <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>61</v>
       </c>
@@ -2133,7 +2138,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="75">
+    <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>67</v>
       </c>
@@ -2162,7 +2167,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45">
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>132</v>
       </c>
@@ -2189,7 +2194,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="30">
+    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>74</v>
       </c>
@@ -2216,7 +2221,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>131</v>
       </c>
@@ -2241,7 +2246,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>92</v>
       </c>
@@ -2271,27 +2276,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EE3BA5-8943-45EB-97C0-8838D9F63575}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="35"/>
-    <col min="2" max="2" width="12.5703125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="35" customWidth="1"/>
-    <col min="7" max="11" width="9" style="35"/>
-    <col min="12" max="12" width="56.42578125" style="35" customWidth="1"/>
-    <col min="13" max="13" width="50" style="35" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="35"/>
+    <col min="2" max="2" width="12.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="9" width="9" style="35"/>
+    <col min="10" max="10" width="56.375" style="35" customWidth="1"/>
+    <col min="11" max="11" width="50" style="35" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
@@ -2305,26 +2309,24 @@
       <c r="E1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="G1" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="6"/>
+        <v>171</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="K1" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45">
+    <row r="2" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>138</v>
       </c>
@@ -2334,32 +2336,30 @@
       <c r="C2" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="34" customFormat="1" ht="30">
+    <row r="3" spans="1:11" s="34" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>139</v>
       </c>
@@ -2369,131 +2369,119 @@
       <c r="C3" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41" t="s">
+      <c r="G3" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="L3" s="27" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="K3" s="27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="75">
+    <row r="4" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="43" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43" t="s">
+      <c r="G4" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="37" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="75">
-      <c r="A5" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="45">
-      <c r="A6" s="14" t="s">
-        <v>132</v>
+      <c r="C5" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30">
+      <c r="C6" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>113</v>
@@ -2501,32 +2489,30 @@
       <c r="C7" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
-        <v>167</v>
+      <c r="D7" s="43"/>
+      <c r="E7" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>154</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30">
-      <c r="A8" s="16" t="s">
-        <v>131</v>
+      <c r="I7" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>113</v>
@@ -2534,66 +2520,95 @@
       <c r="C8" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="K9" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="16" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="42" t="s">
+      <c r="B10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="43" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43" t="s">
+      <c r="F10" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43" t="s">
+      <c r="G10" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D2:D10"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SimpleBak/setting.xlsx
+++ b/SimpleBak/setting.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A84486-D69D-4C04-9E47-A899CDFB7B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA817CA-084B-4BB4-90E8-49409050991D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="编码对比" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="转码设置" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">编码对比!$A$1:$L$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">编码对比!$B$1:$M$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="186">
   <si>
     <t>GIF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -812,9 +812,6 @@
     <t>avif</t>
   </si>
   <si>
-    <t>heif</t>
-  </si>
-  <si>
     <t>PNG</t>
   </si>
   <si>
@@ -829,6 +826,54 @@
   </si>
   <si>
     <t>j2k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hevc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bit Depth Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPEG2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLIF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVIF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VP8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,7 +884,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,8 +975,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1005,8 +1058,14 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1044,8 +1103,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1053,8 +1121,11 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1164,9 +1235,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1185,15 +1253,28 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
+    <cellStyle name="40% - 着色 2" xfId="7" builtinId="35"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="注释" xfId="4" builtinId="10"/>
     <cellStyle name="着色 2" xfId="5" builtinId="33"/>
     <cellStyle name="着色 5" xfId="6" builtinId="45"/>
-    <cellStyle name="注释" xfId="4" builtinId="10"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1476,267 +1557,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="78.375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="29" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.75" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="19.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="78.375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="54" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:14" ht="54" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" ht="121.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" ht="121.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="M3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>9</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="M4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="L5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="M5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>9</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="M6" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -1749,15 +1833,16 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
-    </row>
-    <row r="8" spans="1:13" s="33" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="N7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" s="33" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
@@ -1768,229 +1853,247 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
-    </row>
-    <row r="9" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="N8" s="32"/>
+    </row>
+    <row r="9" spans="1:14" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>9</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="J9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="K9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="L9" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="M9" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>9</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="J10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="M10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="N10" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:14" ht="27" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>9</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="J11" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="K11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="L11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="M11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>9</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="J12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="K12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="L12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="M12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>9</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="16"/>
+      <c r="L13" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="M13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="N13" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>9</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="16"/>
+      <c r="M14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L3" xr:uid="{DB31F39D-12E2-4445-B04B-2E9AF4DB6C6B}"/>
+  <autoFilter ref="B1:M3" xr:uid="{DB31F39D-12E2-4445-B04B-2E9AF4DB6C6B}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2002,7 +2105,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2276,336 +2379,378 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EE3BA5-8943-45EB-97C0-8838D9F63575}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="35"/>
-    <col min="2" max="2" width="12.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="9" width="9" style="35"/>
-    <col min="10" max="10" width="56.375" style="35" customWidth="1"/>
-    <col min="11" max="11" width="50" style="35" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="35"/>
+    <col min="1" max="2" width="9" style="35"/>
+    <col min="3" max="3" width="12.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="21.875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="11" width="9" style="35"/>
+    <col min="12" max="12" width="56.375" style="35" customWidth="1"/>
+    <col min="13" max="13" width="50" style="35" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="43">
+        <v>8</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="L2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="34" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="44"/>
+      <c r="B3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="40" t="s">
+      <c r="E3" s="43"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="I3" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="37" t="s">
+      <c r="J3" s="26"/>
+      <c r="K3" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="44"/>
+      <c r="B5" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="34" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="40" t="s">
+      <c r="E5" s="43"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="40" t="s">
+      <c r="H5" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D6" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="42" t="s">
+      <c r="E6" s="43"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="42" t="s">
+      <c r="H6" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="40" t="s">
+      <c r="E7" s="43"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="H7" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="B9" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="42" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="42" t="s">
+      <c r="H10" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:D10"/>
+  <mergeCells count="4">
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
